--- a/biology/Botanique/Iridaceae/Iridaceae.xlsx
+++ b/biology/Botanique/Iridaceae/Iridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iridacées
 La famille des Iridaceae (Iridacées) est constituée de plantes monocotylédones. La circonscription est discutée : elle comprend environ 1 800 espèces réparties en 67-92 genres répartis en quelques sous-familles.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Iris, du nom grec ἶρις / īris, « iris ou arc-en-ciel [2]» (d'où la déesse Iris, la messagère des dieux, déesse de l'arc-en-ciel), en référence à la multitude de couleurs des nombreuses espèces de ce genre[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Iris, du nom grec ἶρις / īris, « iris ou arc-en-ciel » (d'où la déesse Iris, la messagère des dieux, déesse de l'arc-en-ciel), en référence à la multitude de couleurs des nombreuses espèces de ce genre,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La circonscription de cette famille est encore discutée. Cependant la classification classique de Cronquist (1981)[5] et la classification phylogénétique placent cette famille dans l'ordre des Asparagales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La circonscription de cette famille est encore discutée. Cependant la classification classique de Cronquist (1981) et la classification phylogénétique placent cette famille dans l'ordre des Asparagales.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) :
 Ainea Ravenna (1979)
 Alophia Herb. (1840)
 Aristea Aiton (1789)
@@ -648,7 +666,7 @@
 Watsonia Mill. (1758)
 Xenoscapa (Goldblatt) Goldblatt &amp; J.C.Manning (1995)
 Zygotritonia Mildbr. (1923)
-Selon Angiosperm Phylogeny Website                        (20 mai 2010)[7] :
+Selon Angiosperm Phylogeny Website                        (20 mai 2010) :
 Ainea Ravenna
 Alophia Herb.
 Anapalina N.E.Br.
@@ -737,7 +755,7 @@
 Watsonia Mill.
 Witsenia Thunb.
 Zygotritonia Mildbr.
-Selon NCBI  (16 avr. 2010)[8] :
+Selon NCBI  (16 avr. 2010) :
 Ainea
 Alophia
 Anomatheca
@@ -809,7 +827,7 @@
 Watsonia
 Witsenia
 Xenoscapa
-Selon DELTA Angio           (16 avr. 2010)[9] :
+Selon DELTA Angio           (16 avr. 2010) :
 Ainea
 Alophia
 Anomatheca
@@ -893,7 +911,7 @@
 Watsonia
 Wisenia
 Zygotritonia
-Selon ITIS      (16 avr. 2010)[10] :
+Selon ITIS      (16 avr. 2010) :
 Alophia Herbert
 Anomatheca Ker-Gawl.
 Aristea Ait.
